--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
@@ -1,48 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worbs\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0762D06D-94A1-412E-B978-B977E032F282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="348" yWindow="972" windowWidth="17244" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="가입 정보" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="가입 정보" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>나이</t>
+  </si>
+  <si>
+    <t>학교</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>조새론</t>
+  </si>
+  <si>
+    <t>perseverancetea</t>
+  </si>
+  <si>
+    <t>대구강북초등학교</t>
+  </si>
+  <si>
+    <t>303동 303호</t>
+  </si>
+  <si>
+    <t>정주안</t>
+  </si>
+  <si>
+    <t>creativityfree5</t>
+  </si>
+  <si>
+    <t>대구침산초등학교</t>
+  </si>
+  <si>
+    <t>103동 205호</t>
+  </si>
+  <si>
+    <t>이요한</t>
+  </si>
+  <si>
+    <t>exploration7</t>
+  </si>
+  <si>
+    <t>203동 306호</t>
+  </si>
+  <si>
+    <t>한태리</t>
+  </si>
+  <si>
+    <t>neverguitar</t>
+  </si>
+  <si>
+    <t>대구학정초등학교</t>
+  </si>
+  <si>
+    <t>나동 102호</t>
+  </si>
+  <si>
+    <t>박가인</t>
+  </si>
+  <si>
+    <t>snatchedhappine</t>
+  </si>
+  <si>
+    <t>대구신암초등학교</t>
+  </si>
+  <si>
+    <t>104동 503호</t>
+  </si>
+  <si>
+    <t>남이준</t>
+  </si>
+  <si>
+    <t>shining50</t>
+  </si>
+  <si>
+    <t>202동 101호</t>
+  </si>
+  <si>
+    <t>심유안</t>
+  </si>
+  <si>
+    <t>memoriesshook</t>
+  </si>
+  <si>
+    <t>대구달산초등학교</t>
+  </si>
+  <si>
+    <t>103동 306호</t>
+  </si>
+  <si>
+    <t>이찬희</t>
+  </si>
+  <si>
+    <t>sustainabilityd</t>
+  </si>
+  <si>
+    <t>대구학남초등학교</t>
+  </si>
+  <si>
+    <t>505동 306호</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>flexstyle1</t>
+  </si>
+  <si>
+    <t>104동 309호</t>
+  </si>
+  <si>
+    <t>정의준</t>
+  </si>
+  <si>
+    <t>communicatorkpo</t>
+  </si>
+  <si>
+    <t>대구복현초등학교</t>
+  </si>
+  <si>
+    <t>106동 201호</t>
+  </si>
+  <si>
+    <t>백재준</t>
+  </si>
+  <si>
+    <t>tbhcurious5</t>
+  </si>
+  <si>
+    <t>102동 403호</t>
+  </si>
+  <si>
+    <t>최동훈</t>
+  </si>
+  <si>
+    <t>championhistory</t>
+  </si>
+  <si>
+    <t>105동 102호</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Malgun Gothic"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color rgb="FF3C6C91"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,84 +206,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,81 +509,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col width="19.875" customWidth="1" min="2" max="2"/>
-    <col width="5.25" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="16.625" customWidth="1" min="4" max="4"/>
+    <col min="2" max="2" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>아이디</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>나이</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>학교</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>주소</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1">
-      <c r="B2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>박현</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>inspiration64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>포항중앙초등학교</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>307동 401호</t>
-        </is>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="348" yWindow="972" windowWidth="17244" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="0" windowWidth="11544" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="가입 정보" sheetId="1" state="visible" r:id="rId1"/>
@@ -419,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
@@ -458,6 +458,11 @@
           <t>주소</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>시간</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,7 +483,7 @@
           <t>대구강북초등학교</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>303동 303호</t>
         </is>
@@ -503,7 +508,7 @@
           <t>대구침산초등학교</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>103동 205호</t>
         </is>
@@ -528,7 +533,7 @@
           <t>대구강북초등학교</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>203동 306호</t>
         </is>
@@ -553,7 +558,7 @@
           <t>대구학정초등학교</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>나동 102호</t>
         </is>
@@ -578,7 +583,7 @@
           <t>대구신암초등학교</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>104동 503호</t>
         </is>
@@ -603,7 +608,7 @@
           <t>대구학정초등학교</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>202동 101호</t>
         </is>
@@ -628,7 +633,7 @@
           <t>대구달산초등학교</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>103동 306호</t>
         </is>
@@ -653,7 +658,7 @@
           <t>대구학남초등학교</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>505동 306호</t>
         </is>
@@ -678,7 +683,7 @@
           <t>대구침산초등학교</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>104동 309호</t>
         </is>
@@ -703,7 +708,7 @@
           <t>대구복현초등학교</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>106동 201호</t>
         </is>
@@ -728,7 +733,7 @@
           <t>대구침산초등학교</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>102동 403호</t>
         </is>
@@ -753,7 +758,7 @@
           <t>대구복현초등학교</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>105동 102호</t>
         </is>
@@ -778,7 +783,7 @@
           <t>대구복현초등학교</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>105동 507호</t>
         </is>
@@ -803,7 +808,7 @@
           <t>대구신암초등학교</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>102동 204호</t>
         </is>
@@ -828,7 +833,7 @@
           <t>대구학정초등학교</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>202동 504호</t>
         </is>
@@ -853,7 +858,7 @@
           <t>대구달산초등학교</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>103동 308호</t>
         </is>
@@ -878,7 +883,7 @@
           <t>대구신암초등학교</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>104동 206호</t>
         </is>
@@ -903,7 +908,7 @@
           <t>대구관문초등학교</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>212동 105호</t>
         </is>
@@ -928,9 +933,784 @@
           <t>대구달산초등학교</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>102동 204호</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>박이한</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>naturetraveler</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>13</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로4길 9 212동 408호</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>정지호</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>famperseverance</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동 980 106동 205호</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>이윤후</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>explorertechnol</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>대구 북구 경대로5길 25 210동 407호</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>김지헌</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>respectfashioni</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동 980 106동 207호</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>손태훈</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>empathytea</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로19길 9 103동 301호</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>신재훈</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bookwormkindnes</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>13</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로4길 9 212동 402호</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>손태율</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>therapistyeeseo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>대구 북구 학정로110길 29 101동 109호</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>이지호</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>boldcritic</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 403호</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>장윤</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>writeryoutube6</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>12</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>대구 북구 옥산로17길 50 102동 207호</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>강재원</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>nature95</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 90 102동 506호</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>김유건</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>happy30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>12</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 90 102동 508호</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>이하엘</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lifecurious6</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 102호</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>박도원</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>collaboratorsae</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>대구 북구 학남로 60 나동 205호</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>임하민</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bosscommunity1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>13</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>대구 북구 복현동 241-1 106동 503호</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>염유현</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>motivatedbaker</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>11</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 70 203동 504호</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>최율</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>shookguide9</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 202동 303호</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>박유담</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>basicmentor</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 506호</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>김선후</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>friendshipnegot</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>13</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 70 203동 104호</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>박재민</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>whizdeveloper</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>11</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로19길 9 103동 107호</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>고진혁</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>happyexplorer</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>12</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 405호</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:05:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>오이담</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>entertainerflex</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>11</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 70 203동 108호</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>김산</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>speakerepic4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 203동 104호</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:39:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>이로아</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>neverlove</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동 980 106동 505호</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:55:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>류유하</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ultrawarrior</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 90 102동 102호</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:15:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>이해온</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>moderatorpiano</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>대구 북구 호암로 40 105동 103호</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:34:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>신호윤</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mollynocap</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>대구 북구 경대로5길 25 210동 102호</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-06-12 12:53:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>김환</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>influencerhappy</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 204호</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:14:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>임아준</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>foodie18</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>11</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로19길 9 103동 409호</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>박현준</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>producer85</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>12</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 409호</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-06-12 13:52:54</t>
         </is>
       </c>
     </row>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
@@ -1714,6 +1714,396 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>최강민</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>englishresponsi</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 203동 401호</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-06-13 08:48:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>조유민</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>teammateinspira</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>11</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>대구 북구 호암로 20 110동 102호</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-06-13 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>곽연우</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>love1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 116 101동 209호</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-06-13 09:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>김태리</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>empathymediator</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>11</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 203동 109호</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-06-13 10:03:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>이가희</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>problem-solvero</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>12</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>대구 북구 복현동 241-1 106동 302호</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-06-13 10:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>최유환</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>problem-solverr</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>13</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>대구 북구 복현동 241-1 106동 507호</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-06-13 11:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>김선후</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>contributor76</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>11</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로4길 9 212동 203호</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-06-13 11:05:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>이보겸</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>doctorhistorian</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>11</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 16 105동 505호</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-06-13 12:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>김린아</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>witty5</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>12</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 101호</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-06-13 12:38:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>지의준</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>allyenglish6</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>12</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>대구 북구 칠성남로 101 107동 109호</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>천윤희</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>peacecompassion</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>11</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 70 203동 302호</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:39:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>방이든</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>snatchedbasic8</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>13</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 408호</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-06-13 13:57:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>김지웅</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>loyalty02</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>11</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>대구 북구 학남로 60 나동 304호</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-06-13 14:28:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="960" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="1" state="visible" r:id="rId1"/>
@@ -423,16 +423,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="17.25" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="19.25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="17.19921875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="19.19921875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2984,6 +2984,531 @@
       <c r="G88" t="inlineStr">
         <is>
           <t>2025-06-19 19:48:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>최혁</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>photographerhel</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>12</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 104호</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-06-20 13:08:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>송규민</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>legendzombieing</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>13</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 402호</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-06-20 13:27:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>김제나</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>explorertravele</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>12</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 209호</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-06-20 13:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>김다예</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>baseballintelli</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>13</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>대구동평초등학교</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>대구 북구 대천로 101 101동 508호</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-06-20 14:13:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>박연지</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>whizculture</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>12</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 116 101동 209호</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-06-20 14:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>김이레</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>loyalscientist</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>11</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>대구 북구 침산로 163 104동 109호</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-06-20 14:52:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>함우리</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>visionary3</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>12</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 302호</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:09:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>김준석</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>comedian6</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>13</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>대구 북구 칠성남로 101 107동 304호</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:28:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>김태오</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>organizedgamer5</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>13</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>대구 북구 구암로65길 9 307동 407호</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:46:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>송이안</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>writingtraveler</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>대구동평초등학교</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>대구 북구 대천로 101 101동 508호</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>김준원</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>flexcrashy8</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>13</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>대구 북구 학남로 60 나동 204호</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>김결</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>curatornoob5</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>13</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>대구 북구 경대로5길 25 210동 507호</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:39:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>신단</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>passionate1</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>12</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>대구 북구 학정로110길 29 101동 303호</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:55:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>박정민</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>bookwormintegri</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>대구 북구 호암로 20 110동 403호</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-06-20 17:12:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>이준기</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>developersnatch</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>12</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>대구 북구 학남로 60 나동 104호</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-06-20 17:29:44</t>
         </is>
       </c>
     </row>
@@ -3004,10 +3529,10 @@
       <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="17.25" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="19.25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="17.19921875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="19.19921875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1056" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5616" yWindow="1368" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="1" state="visible" r:id="rId1"/>
@@ -423,10 +423,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H115" sqref="A115:H115"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
@@ -650,41 +650,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>이찬희</t>
+          <t>김민수</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sustainabilityd</t>
+          <t>flexstyle1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>505동 306호</t>
+          <t>104동 309호</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>김민수</t>
+          <t>백재준</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>flexstyle1</t>
+          <t>tbhcurious5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -693,23 +693,23 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>104동 309호</t>
+          <t>102동 403호</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>정의준</t>
+          <t>최동훈</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>communicatorkpo</t>
+          <t>championhistory</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -718,19 +718,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>106동 201호</t>
+          <t>105동 102호</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>백재준</t>
+          <t>손준형</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tbhcurious5</t>
+          <t>crazynoob1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -738,49 +738,49 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>102동 403호</t>
+          <t>105동 507호</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>최동훈</t>
+          <t>김신우</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>championhistory</t>
+          <t>promoterwise</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>105동 102호</t>
+          <t>102동 204호</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>손준형</t>
+          <t>이라엘</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>crazynoob1</t>
+          <t>heropeace6</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -788,124 +788,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>105동 507호</t>
+          <t>202동 504호</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>김신우</t>
+          <t>서민솔</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>promoterwise</t>
+          <t>liquidfree</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>102동 204호</t>
+          <t>103동 308호</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>이라엘</t>
+          <t>심지완</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>heropeace6</t>
+          <t>robloxpersisten</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>202동 504호</t>
+          <t>104동 206호</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>서민솔</t>
+          <t>박하온</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>liquidfree</t>
+          <t>hobbieshero</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>103동 308호</t>
+          <t>212동 105호</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>심지완</t>
+          <t>김유아</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>robloxpersisten</t>
+          <t>explorertea8</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>104동 206호</t>
+          <t>102동 204호</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>박하온</t>
+          <t>박이한</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hobbieshero</t>
+          <t>naturetraveler</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -918,73 +918,73 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>212동 105호</t>
+          <t>대구 북구 매전로4길 9 212동 408호</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>김유아</t>
+          <t>정지호</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>explorertea8</t>
+          <t>famperseverance</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구학남초등학교</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>102동 204호</t>
+          <t>대구 북구 학정동 980 106동 205호</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>박이한</t>
+          <t>이윤후</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>naturetraveler</t>
+          <t>explorertechnol</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>대구 북구 매전로4길 9 212동 408호</t>
+          <t>대구 북구 경대로5길 25 210동 407호</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>정지호</t>
+          <t>김지헌</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>famperseverance</t>
+          <t>respectfashioni</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -993,44 +993,44 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>대구 북구 학정동 980 106동 205호</t>
+          <t>대구 북구 학정동 980 106동 207호</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>이윤후</t>
+          <t>손태훈</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>explorertechnol</t>
+          <t>empathytea</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>대구 북구 경대로5길 25 210동 407호</t>
+          <t>대구 북구 침산남로19길 9 103동 301호</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>김지헌</t>
+          <t>신재훈</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>respectfashioni</t>
+          <t>bookwormkindnes</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1038,124 +1038,124 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>대구 북구 학정동 980 106동 207호</t>
+          <t>대구 북구 매전로4길 9 212동 402호</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>손태훈</t>
+          <t>손태율</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>empathytea</t>
+          <t>therapistyeeseo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로19길 9 103동 301호</t>
+          <t>대구 북구 학정로110길 29 101동 109호</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>신재훈</t>
+          <t>이지호</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bookwormkindnes</t>
+          <t>boldcritic</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>대구 북구 매전로4길 9 212동 402호</t>
+          <t>대구 북구 공항로 84 102동 403호</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>손태율</t>
+          <t>장윤</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>therapistyeeseo</t>
+          <t>writeryoutube6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>대구 북구 학정로110길 29 101동 109호</t>
+          <t>대구 북구 옥산로17길 50 102동 207호</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>이지호</t>
+          <t>강재원</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>boldcritic</t>
+          <t>nature95</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 403호</t>
+          <t>대구 북구 침산남로 90 102동 506호</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>장윤</t>
+          <t>김유건</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>writeryoutube6</t>
+          <t>happy30</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1163,24 +1163,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>대구 북구 옥산로17길 50 102동 207호</t>
+          <t>대구 북구 침산남로 90 102동 508호</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>강재원</t>
+          <t>이하엘</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nature95</t>
+          <t>lifecurious6</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1188,53 +1188,53 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로 90 102동 506호</t>
+          <t>대구 북구 공항로 84 102동 102호</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>김유건</t>
+          <t>박도원</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>happy30</t>
+          <t>collaboratorsae</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로 90 102동 508호</t>
+          <t>대구 북구 학남로 60 나동 205호</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>이하엘</t>
+          <t>임하민</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lifecurious6</t>
+          <t>bosscommunity1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1243,169 +1243,174 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 102호</t>
+          <t>대구 북구 복현동 241-1 106동 503호</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>박도원</t>
+          <t>염유현</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>collaboratorsae</t>
+          <t>motivatedbaker</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>대구 북구 학남로 60 나동 205호</t>
+          <t>대구 북구 구암서로 70 203동 504호</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>임하민</t>
+          <t>최율</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bosscommunity1</t>
+          <t>shookguide9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>대구 북구 복현동 241-1 106동 503호</t>
+          <t>대구 북구 학정동로 40 202동 303호</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>염유현</t>
+          <t>박유담</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>motivatedbaker</t>
+          <t>basicmentor</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 70 203동 504호</t>
+          <t>대구 북구 공항로 84 102동 506호</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>최율</t>
+          <t>김선후</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>shookguide9</t>
+          <t>friendshipnegot</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 202동 303호</t>
+          <t>대구 북구 구암서로 70 203동 104호</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>박유담</t>
+          <t>박재민</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>basicmentor</t>
+          <t>whizdeveloper</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 506호</t>
+          <t>대구 북구 침산남로19길 9 103동 107호</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>김선후</t>
+          <t>고진혁</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>friendshipnegot</t>
+          <t>happyexplorer</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 70 203동 104호</t>
+          <t>대구 북구 매전로 50-42 202동 405호</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:05:42</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>박재민</t>
+          <t>오이담</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>whizdeveloper</t>
+          <t>entertainerflex</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1413,114 +1418,119 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로19길 9 103동 107호</t>
+          <t>대구 북구 구암서로 70 203동 108호</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-06-12 11:22:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>고진혁</t>
+          <t>김산</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>happyexplorer</t>
+          <t>speakerepic4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구학남초등학교</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 405호</t>
+          <t>대구 북구 학정동로 40 203동 104호</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-12 11:05:42</t>
+          <t>2025-06-12 11:39:20</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>오이담</t>
+          <t>이로아</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>entertainerflex</t>
+          <t>neverlove</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구학남초등학교</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 70 203동 108호</t>
+          <t>대구 북구 학정동 980 106동 505호</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-12 11:22:59</t>
+          <t>2025-06-12 11:55:15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>김산</t>
+          <t>류유하</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>speakerepic4</t>
+          <t>ultrawarrior</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 203동 104호</t>
+          <t>대구 북구 침산남로 90 102동 102호</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-12 11:39:20</t>
+          <t>2025-06-12 12:15:43</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>이로아</t>
+          <t>이해온</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>neverlove</t>
+          <t>moderatorpiano</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1528,119 +1538,119 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>대구 북구 학정동 980 106동 505호</t>
+          <t>대구 북구 호암로 40 105동 103호</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-12 11:55:15</t>
+          <t>2025-06-12 12:34:34</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>류유하</t>
+          <t>신호윤</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ultrawarrior</t>
+          <t>mollynocap</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로 90 102동 102호</t>
+          <t>대구 북구 경대로5길 25 210동 102호</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-12 12:15:43</t>
+          <t>2025-06-12 12:53:37</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>이해온</t>
+          <t>김환</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>moderatorpiano</t>
+          <t>influencerhappy</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>대구 북구 호암로 40 105동 103호</t>
+          <t>대구 북구 공항로 84 102동 204호</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-12 12:34:34</t>
+          <t>2025-06-12 13:14:27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>신호윤</t>
+          <t>임아준</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mollynocap</t>
+          <t>foodie18</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>대구 북구 경대로5길 25 210동 102호</t>
+          <t>대구 북구 침산남로19길 9 103동 409호</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-12 12:53:37</t>
+          <t>2025-06-12 13:33:26</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>김환</t>
+          <t>박현준</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>influencerhappy</t>
+          <t>producer85</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1648,89 +1658,89 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 204호</t>
+          <t>대구 북구 매전로 50-42 202동 409호</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-12 13:14:27</t>
+          <t>2025-06-12 13:52:54</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>임아준</t>
+          <t>최강민</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>foodie18</t>
+          <t>englishresponsi</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구학남초등학교</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로19길 9 103동 409호</t>
+          <t>대구 북구 학정동로 40 203동 401호</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-12 13:33:26</t>
+          <t>2025-06-13 08:48:15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>박현준</t>
+          <t>조유민</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>producer85</t>
+          <t>teammateinspira</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 409호</t>
+          <t>대구 북구 호암로 20 110동 102호</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-12 13:52:54</t>
+          <t>2025-06-13 09:23:19</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>최강민</t>
+          <t>곽연우</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>englishresponsi</t>
+          <t>love1</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1738,29 +1748,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 203동 401호</t>
+          <t>대구 북구 침산남로 116 101동 209호</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-13 08:48:15</t>
+          <t>2025-06-13 09:44:05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>조유민</t>
+          <t>김태리</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>teammateinspira</t>
+          <t>empathymediator</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1768,59 +1778,59 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구학남초등학교</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>대구 북구 호암로 20 110동 102호</t>
+          <t>대구 북구 학정동로 40 203동 109호</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-13 09:23:19</t>
+          <t>2025-06-13 10:03:42</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>곽연우</t>
+          <t>김선후</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>love1</t>
+          <t>contributor76</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로 116 101동 209호</t>
+          <t>대구 북구 매전로4길 9 212동 203호</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-13 09:44:05</t>
+          <t>2025-06-13 11:05:06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>김태리</t>
+          <t>이보겸</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>empathymediator</t>
+          <t>doctorhistorian</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1828,29 +1838,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 203동 109호</t>
+          <t>대구 북구 공항로 16 105동 505호</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-13 10:03:42</t>
+          <t>2025-06-13 12:20:30</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>이가희</t>
+          <t>김린아</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>problem-solvero</t>
+          <t>witty5</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1863,54 +1873,54 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>대구 북구 복현동 241-1 106동 302호</t>
+          <t>대구 북구 공항로 84 102동 101호</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-13 10:20:59</t>
+          <t>2025-06-13 12:38:22</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>최유환</t>
+          <t>지의준</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>problem-solverr</t>
+          <t>allyenglish6</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>대구 북구 복현동 241-1 106동 507호</t>
+          <t>대구 북구 칠성남로 101 107동 109호</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-13 11:04:30</t>
+          <t>2025-06-13 13:21:19</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>김선후</t>
+          <t>천윤희</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>contributor76</t>
+          <t>peacecompassion</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1918,423 +1928,443 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>대구 북구 매전로4길 9 212동 203호</t>
+          <t>대구 북구 구암서로 70 203동 302호</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-13 11:05:06</t>
+          <t>2025-06-13 13:39:09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>이보겸</t>
+          <t>방이든</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>doctorhistorian</t>
+          <t>snatchedbasic8</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 16 105동 505호</t>
+          <t>대구 북구 매전로 50-42 202동 408호</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-13 12:20:30</t>
+          <t>2025-06-13 13:57:14</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>김린아</t>
+          <t>김지웅</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>witty5</t>
+          <t>loyalty02</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 101호</t>
+          <t>대구 북구 학남로 60 나동 304호</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-13 12:38:22</t>
+          <t>2025-06-13 14:28:36</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>지의준</t>
+          <t>김한빈</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>allyenglish6</t>
+          <t>specialistcommu</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>대구 북구 칠성남로 101 107동 109호</t>
+          <t>대구 북구 매전로 50-42 202동 501호</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-13 13:21:19</t>
+          <t>2025-06-13 15:10:57</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>천윤희</t>
+          <t>연태호</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>peacecompassion</t>
+          <t>creativityvolun</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 70 203동 302호</t>
+          <t>대구 북구 옥산로17길 50 102동 207호</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-13 13:39:09</t>
+          <t>2025-06-13 15:27:05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>방이든</t>
+          <t>김태건</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>snatchedbasic8</t>
+          <t>charmingfriendl</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 408호</t>
+          <t>대구 북구 침산로 163 104동 207호</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-13 13:57:14</t>
+          <t>2025-06-13 16:05:22</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>김지웅</t>
+          <t>이이루</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>loyalty02</t>
+          <t>maxcontributor3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>대구 북구 학남로 60 나동 304호</t>
+          <t>대구 북구 복현동 241-1 106동 408호</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-13 14:28:36</t>
+          <t>2025-06-13 16:23:50</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>김한빈</t>
+          <t>진지후</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specialistcommu</t>
+          <t>generosity5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 501호</t>
+          <t>대구 북구 침산로21길 24 103동 407호</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-13 15:10:57</t>
+          <t>2025-06-13 16:44:39</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>연태호</t>
+          <t>노다예</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>creativityvolun</t>
+          <t>linguistyeeseo</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>대구 북구 옥산로17길 50 102동 207호</t>
+          <t>대구 북구 매전로4길 31 203동 204호</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-13 15:27:05</t>
+          <t>2025-06-13 17:05:53</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>김태건</t>
+          <t>김한별</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>charmingfriendl</t>
+          <t>producergenius5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>대구 북구 침산로 163 104동 207호</t>
+          <t>대구 북구 침산로21길 24 103동 203호</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-13 16:05:22</t>
+          <t>2025-06-13 17:21:11</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>이이루</t>
+          <t>박든</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>maxcontributor3</t>
+          <t>health08</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구동평초등학교</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>대구 북구 복현동 241-1 106동 408호</t>
+          <t>대구 북구 구암서로 22 203동 104호</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-13 16:23:50</t>
+          <t>2025-06-19 14:09:07</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>진지후</t>
+          <t>김하리</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>generosity5</t>
+          <t>pioneer4</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>12</v>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>대구 북구 침산로21길 24 103동 407호</t>
+          <t>대구 북구 침산남로19길 9 103동 509호</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-13 16:44:39</t>
+          <t>2025-06-19 14:43:03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>노다예</t>
+          <t>우건우</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>linguistyeeseo</t>
+          <t>explorerfashion</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>12</v>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>대구 북구 매전로4길 31 203동 204호</t>
+          <t>대구 북구 구암로65길 9 307동 203호</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-13 17:05:53</t>
+          <t>2025-06-19 15:01:47</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>김한별</t>
+          <t>곽솔</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>producergenius5</t>
+          <t>imaginationneve</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>대구 북구 침산로21길 24 103동 203호</t>
+          <t>대구 동구 아양로9길 35 102동 401호</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-13 17:21:11</t>
+          <t>2025-06-19 15:19:50</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>박든</t>
+          <t>위제이</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>health08</t>
+          <t>kingshook</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2343,68 +2373,68 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>대구동평초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 22 203동 104호</t>
+          <t>대구 북구 경대로5길 25 210동 501호</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-19 14:09:07</t>
+          <t>2025-06-19 15:39:41</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>김하리</t>
+          <t>김다연</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pioneer4</t>
+          <t>curator13</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로19길 9 103동 509호</t>
+          <t>대구 북구 학정동로 40 202동 102호</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-19 14:43:03</t>
+          <t>2025-06-19 15:55:17</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>우건우</t>
+          <t>이은재</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>explorerfashion</t>
+          <t>animalsgucci8</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2413,33 +2443,33 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>대구 북구 구암로65길 9 307동 203호</t>
+          <t>대구 북구 호암로 40 105동 103호</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-19 15:01:47</t>
+          <t>2025-06-19 16:11:46</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>곽솔</t>
+          <t>권준휘</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>imaginationneve</t>
+          <t>generosity8</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2453,24 +2483,24 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>대구 동구 아양로9길 35 102동 401호</t>
+          <t>대구 동구 신성로 60 104동 302호</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-19 15:19:50</t>
+          <t>2025-06-19 16:31:47</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>위제이</t>
+          <t>권서진</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>kingshook</t>
+          <t>basketball8</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2478,69 +2508,69 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>대구 북구 경대로5길 25 210동 501호</t>
+          <t>대구 북구 호암로 40 105동 306호</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-19 15:39:41</t>
+          <t>2025-06-19 16:48:24</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>김다연</t>
+          <t>남은재</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>curator13</t>
+          <t>technologydream</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 202동 102호</t>
+          <t>대구 북구 구암서로 41 303동 507호</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-06-19 15:55:17</t>
+          <t>2025-06-19 17:05:45</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>이은재</t>
+          <t>강아란</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>animalsgucci8</t>
+          <t>artistyeeseo9</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2553,33 +2583,33 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>대구 북구 호암로 40 105동 103호</t>
+          <t>대구 북구 매전로4길 31 203동 303호</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-06-19 16:11:46</t>
+          <t>2025-06-19 17:21:56</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>권준휘</t>
+          <t>장태희</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>generosity8</t>
+          <t>fashionistacomp</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2588,33 +2618,33 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>대구 동구 신성로 60 104동 302호</t>
+          <t>대구 북구 매전로 50-42 202동 103호</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-06-19 16:31:47</t>
+          <t>2025-06-19 17:39:30</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>권서진</t>
+          <t>허서현</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>basketball8</t>
+          <t>kindgirl</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2623,68 +2653,68 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>대구 북구 호암로 40 105동 306호</t>
+          <t>대구 북구 학정동로 40 202동 306호</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-06-19 16:48:24</t>
+          <t>2025-06-19 17:55:45</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>남은재</t>
+          <t>김주완</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>technologydream</t>
+          <t>inventorhappy2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 41 303동 507호</t>
+          <t>대구 북구 매전로4길 31 203동 101호</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-06-19 17:05:45</t>
+          <t>2025-06-19 18:11:20</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>강아란</t>
+          <t>장수빈</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>artistyeeseo9</t>
+          <t>yeeseo40</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2693,64 +2723,64 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>대구 북구 매전로4길 31 203동 303호</t>
+          <t>대구 동구 신성로 60 104동 203호</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-06-19 17:21:56</t>
+          <t>2025-06-19 18:28:08</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>장태희</t>
+          <t>정라온</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fashionistacomp</t>
+          <t>friendadvocate</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 103호</t>
+          <t>대구 북구 구암서로 41 303동 305호</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-06-19 17:39:30</t>
+          <t>2025-06-19 18:45:25</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>허서현</t>
+          <t>김주원</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>kindgirl</t>
+          <t>trainerdevelope</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2768,24 +2798,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 202동 306호</t>
+          <t>대구 북구 학정동로 40 202동 305호</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-06-19 17:55:45</t>
+          <t>2025-06-19 19:04:37</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>김주완</t>
+          <t>전태호</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>inventorhappy2</t>
+          <t>moderator04</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2793,73 +2823,73 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>대구 북구 매전로4길 31 203동 101호</t>
+          <t>대구 북구 침산로21길 24 103동 101호</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-06-19 18:11:20</t>
+          <t>2025-06-19 19:48:28</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>장수빈</t>
+          <t>최혁</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>yeeseo40</t>
+          <t>photographerhel</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>대구 동구 신성로 60 104동 203호</t>
+          <t>대구 북구 매전로 50-42 202동 104호</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-06-19 18:28:08</t>
+          <t>2025-06-20 13:08:31</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>정라온</t>
+          <t>송규민</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>friendadvocate</t>
+          <t>legendzombieing</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2868,64 +2898,64 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 41 303동 305호</t>
+          <t>대구 북구 공항로 84 102동 402호</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-06-19 18:45:25</t>
+          <t>2025-06-20 13:27:13</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>김주원</t>
+          <t>김제나</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>trainerdevelope</t>
+          <t>explorertravele</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 202동 305호</t>
+          <t>대구 북구 매전로 50-42 202동 209호</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-06-19 19:04:37</t>
+          <t>2025-06-20 13:58:02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>박도영</t>
+          <t>김다예</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>happinessrespon</t>
+          <t>baseballintelli</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2933,34 +2963,34 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구동평초등학교</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 10 505동 208호</t>
+          <t>대구 북구 대천로 101 101동 508호</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-06-19 19:24:35</t>
+          <t>2025-06-20 14:13:49</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>전태호</t>
+          <t>박연지</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>moderator04</t>
+          <t>whizculture</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2968,7 +2998,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2978,28 +3008,28 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>대구 북구 침산로21길 24 103동 101호</t>
+          <t>대구 북구 침산남로 116 101동 209호</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-06-19 19:48:28</t>
+          <t>2025-06-20 14:32:24</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>최혁</t>
+          <t>김이레</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>photographerhel</t>
+          <t>loyalscientist</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3008,37 +3038,37 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 104호</t>
+          <t>대구 북구 침산로 163 104동 109호</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-06-20 13:08:31</t>
+          <t>2025-06-20 14:52:14</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>송규민</t>
+          <t>함우리</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>legendzombieing</t>
+          <t>visionary3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3048,28 +3078,28 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 402호</t>
+          <t>대구 북구 공항로 84 102동 302호</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-06-20 13:27:13</t>
+          <t>2025-06-20 15:09:39</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>김제나</t>
+          <t>김준석</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>explorertravele</t>
+          <t>comedian6</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3078,29 +3108,29 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 209호</t>
+          <t>대구 북구 칠성남로 101 107동 304호</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-06-20 13:58:02</t>
+          <t>2025-06-20 15:28:10</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>김다예</t>
+          <t>김태오</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>baseballintelli</t>
+          <t>organizedgamer5</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3108,34 +3138,34 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>대구동평초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>대구 북구 대천로 101 101동 508호</t>
+          <t>대구 북구 구암로65길 9 307동 407호</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-06-20 14:13:49</t>
+          <t>2025-06-20 15:46:33</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>박연지</t>
+          <t>송이안</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>whizculture</t>
+          <t>writingtraveler</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3148,33 +3178,33 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구동평초등학교</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로 116 101동 209호</t>
+          <t>대구 북구 대천로 101 101동 508호</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-06-20 14:32:24</t>
+          <t>2025-06-20 16:04:57</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>김이레</t>
+          <t>김준원</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>loyalscientist</t>
+          <t>flexcrashy8</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3183,68 +3213,68 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>대구 북구 침산로 163 104동 109호</t>
+          <t>대구 북구 학남로 60 나동 204호</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-06-20 14:52:14</t>
+          <t>2025-06-20 16:21:21</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>함우리</t>
+          <t>김결</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>visionary3</t>
+          <t>curatornoob5</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 302호</t>
+          <t>대구 북구 경대로5길 25 210동 507호</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-06-20 15:09:39</t>
+          <t>2025-06-20 16:39:01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>김준석</t>
+          <t>신단</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>comedian6</t>
+          <t>passionate1</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3253,64 +3283,64 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>대구 북구 칠성남로 101 107동 304호</t>
+          <t>대구 북구 학정로110길 29 101동 303호</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-06-20 15:28:10</t>
+          <t>2025-06-20 16:55:47</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>김태오</t>
+          <t>박정민</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>organizedgamer5</t>
+          <t>bookwormintegri</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>대구 북구 구암로65길 9 307동 407호</t>
+          <t>대구 북구 호암로 20 110동 403호</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-06-20 15:46:33</t>
+          <t>2025-06-20 17:12:59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>송이안</t>
+          <t>이준기</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>writingtraveler</t>
+          <t>developersnatch</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3323,68 +3353,68 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>대구동평초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>대구 북구 대천로 101 101동 508호</t>
+          <t>대구 북구 학남로 60 나동 104호</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-06-20 16:04:57</t>
+          <t>2025-06-20 17:29:44</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>김준원</t>
+          <t>이제니</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>flexcrashy8</t>
+          <t>justicesincere3</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>대구 북구 학남로 60 나동 204호</t>
+          <t>대구 북구 침산로 163 104동 502호</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-06-20 16:21:21</t>
+          <t>2025-06-23 11:07:17</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>김결</t>
+          <t>김주헌</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>curatornoob5</t>
+          <t>whiz91</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3393,29 +3423,29 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>대구 북구 경대로5길 25 210동 507호</t>
+          <t>대구 북구 구암로65길 9 307동 409호</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-06-20 16:39:01</t>
+          <t>2025-06-23 13:02:26</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>신단</t>
+          <t>신윤성</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>passionate1</t>
+          <t>shininglife4</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3428,33 +3458,33 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구동평초등학교</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>대구 북구 학정로110길 29 101동 303호</t>
+          <t>대구 북구 대천로 101 101동 509호</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-06-20 16:55:47</t>
+          <t>2025-06-23 13:22:50</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>박정민</t>
+          <t>박이안</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bookwormintegri</t>
+          <t>representative8</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3463,33 +3493,33 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>대구 북구 호암로 20 110동 403호</t>
+          <t>대구 북구 옥산로17길 50 102동 507호</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-06-20 17:12:59</t>
+          <t>2025-06-23 13:41:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>이준기</t>
+          <t>김유호</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>developersnatch</t>
+          <t>teacherbold8</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3498,99 +3528,99 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구학남초등학교</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>대구 북구 학남로 60 나동 104호</t>
+          <t>대구 북구 국우동 1080 505동 306호</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-06-20 17:29:44</t>
+          <t>2025-06-23 13:58:43</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>이제니</t>
+          <t>하여은</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>justicesincere3</t>
+          <t>masterempathy</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>대구침산초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>대구 북구 침산로 163 104동 502호</t>
+          <t>대구 북구 구암서로 41 303동 308호</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-06-23 11:07:17</t>
+          <t>2025-06-23 14:17:48</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>김주헌</t>
+          <t>라인우</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>whiz91</t>
+          <t>rushgratitude8</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>대구 북구 구암로65길 9 307동 409호</t>
+          <t>대구 북구 칠성남로 101 107동 303호</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-06-23 13:02:26</t>
+          <t>2025-06-23 14:33:52</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>신윤성</t>
+          <t>정희성</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>shininglife4</t>
+          <t>bruhmoderator</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3598,34 +3628,34 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>대구동평초등학교</t>
+          <t>대구학남초등학교</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>대구 북구 대천로 101 101동 509호</t>
+          <t>대구 북구 학정동 980 106동 201호</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-06-23 13:22:50</t>
+          <t>2025-06-23 14:49:33</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>박이안</t>
+          <t>김우혁</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>representative8</t>
+          <t>musician9</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3633,34 +3663,34 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>대구 북구 옥산로17길 50 102동 507호</t>
+          <t>대구 동구 아양로9길 35 102동 208호</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-06-23 13:41:40</t>
+          <t>2025-06-23 14:52:58</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>김유호</t>
+          <t>이다원</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>teacherbold8</t>
+          <t>communityentert</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3668,34 +3698,34 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>대구 북구 국우동 1080 505동 306호</t>
+          <t>대구 북구 학정동로 40 202동 105호</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-06-23 13:58:43</t>
+          <t>2025-06-23 15:12:06</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>하여은</t>
+          <t>김강준</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>masterempathy</t>
+          <t>entrepreneuredu</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3708,33 +3738,33 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 41 303동 308호</t>
+          <t>대구 북구 침산남로 116 101동 206호</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-06-23 14:17:48</t>
+          <t>2025-06-23 15:32:30</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>라인우</t>
+          <t>김하윤</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rushgratitude8</t>
+          <t>musicfam</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3743,64 +3773,64 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>대구 북구 칠성남로 101 107동 303호</t>
+          <t>대구 북구 침산로21길 24 103동 204호</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-06-23 14:33:52</t>
+          <t>2025-06-23 16:09:49</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>정희성</t>
+          <t>박정연</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bruhmoderator</t>
+          <t>travelergaming</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>대구학남초등학교</t>
+          <t>대구달산초등학교</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>대구 북구 학정동 980 106동 201호</t>
+          <t>대구 북구 옥산로17길 50 102동 403호</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-06-23 14:49:33</t>
+          <t>2025-06-23 16:39:19</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>김우혁</t>
+          <t>서이안</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>musician9</t>
+          <t>rocket9</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3813,103 +3843,103 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>대구신암초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>대구 동구 아양로9길 35 102동 208호</t>
+          <t>대구 북구 매전로4길 31 203동 203호</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-06-23 14:52:58</t>
+          <t>2025-06-23 16:57:20</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>이다원</t>
+          <t>박채민</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>communityentert</t>
+          <t>food2</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 202동 105호</t>
+          <t>대구 북구 호암로 40 105동 305호</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-06-23 15:12:06</t>
+          <t>2025-06-23 17:13:32</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>김강준</t>
+          <t>한동우</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>entrepreneuredu</t>
+          <t>molly4</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>대구 북구 침산남로 116 101동 206호</t>
+          <t>대구 북구 구암서로 70 203동 505호</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-06-23 15:32:30</t>
+          <t>2025-06-23 17:31:17</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>김하윤</t>
+          <t>이시윤</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>musicfam</t>
+          <t>animalseducator</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3918,33 +3948,33 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>대구 북구 침산로21길 24 103동 204호</t>
+          <t>대구 북구 학정동로 40 202동 402호</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-06-23 16:09:49</t>
+          <t>2025-06-23 17:50:49</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>박정연</t>
+          <t>박은우</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>travelergaming</t>
+          <t>pianoimaginativ</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3953,29 +3983,29 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>대구달산초등학교</t>
+          <t>대구관문초등학교</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>대구 북구 옥산로17길 50 102동 403호</t>
+          <t>대구 북구 매전로 50-42 202동 401호</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-06-23 16:39:19</t>
+          <t>2025-06-23 18:10:21</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>서이안</t>
+          <t>김민건</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>rocket9</t>
+          <t>readinglaughter</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3983,38 +4013,38 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>월수</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구복현초등학교</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>대구 북구 매전로4길 31 203동 203호</t>
+          <t>대구 북구 공항로 84 102동 307호</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-06-23 16:57:20</t>
+          <t>2025-06-23 18:29:35</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>박채민</t>
+          <t>정은빈</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>food2</t>
+          <t>teaghosting</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -4028,28 +4058,28 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>대구 북구 호암로 40 105동 305호</t>
+          <t>대구 북구 칠성남로 101 107동 108호</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-06-23 17:13:32</t>
+          <t>2025-06-23 18:48:50</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>한동우</t>
+          <t>정원우</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>molly4</t>
+          <t>kindcontributor</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4063,28 +4093,28 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 70 203동 505호</t>
+          <t>대구 북구 구암서로 70 203동 205호</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-06-23 17:31:17</t>
+          <t>2025-06-23 19:06:48</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>이시윤</t>
+          <t>임민성</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>animalseducator</t>
+          <t>whizyoutube</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4098,24 +4128,24 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>대구 북구 학정동로 40 202동 402호</t>
+          <t>대구 북구 학정로110길 29 101동 102호</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-06-23 17:50:49</t>
+          <t>2025-06-23 19:24:28</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>박은우</t>
+          <t>이이은</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>pianoimaginativ</t>
+          <t>blackpinksquad</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4128,33 +4158,33 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>대구관문초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>대구 북구 매전로 50-42 202동 401호</t>
+          <t>대구 북구 호암로 20 110동 506호</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-06-23 18:10:21</t>
+          <t>2025-06-23 19:41:17</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>김민건</t>
+          <t>배도현</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>readinglaughter</t>
+          <t>snatchedfriends</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -4163,33 +4193,33 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>대구복현초등학교</t>
+          <t>대구강북초등학교</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>대구 북구 공항로 84 102동 307호</t>
+          <t>대구 북구 구암로65길 9 307동 508호</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-06-23 18:29:35</t>
+          <t>2025-06-23 20:00:13</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>정은빈</t>
+          <t>엄윤성</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>teaghosting</t>
+          <t>lifesoccer</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4198,33 +4228,33 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구동평초등학교</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>대구 북구 칠성남로 101 107동 108호</t>
+          <t>대구 북구 구암서로 22 203동 406호</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-06-23 18:48:50</t>
+          <t>2025-06-23 20:32:13</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>정원우</t>
+          <t>이가영</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>kindcontributor</t>
+          <t>acelearner</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4233,138 +4263,138 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 70 203동 205호</t>
+          <t>대구 동구 신성로 60 104동 507호</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-06-23 19:06:48</t>
+          <t>2025-06-24 13:51:16</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>임민성</t>
+          <t>박현수</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>whizyoutube</t>
+          <t>artbruh</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>대구학정초등학교</t>
+          <t>대구신암초등학교</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>대구 북구 학정로110길 29 101동 102호</t>
+          <t>대구 동구 신성로 60 104동 405호</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-06-23 19:24:28</t>
+          <t>2025-06-24 14:05:53</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>이이은</t>
+          <t>고태겸</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>blackpinksquad</t>
+          <t>masterkindness5</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>대구옥산초등학교</t>
+          <t>대구학정초등학교</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>대구 북구 호암로 20 110동 506호</t>
+          <t>대구 북구 학남로 60 나동 403호</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-06-23 19:41:17</t>
+          <t>2025-06-24 14:20:50</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>배도현</t>
+          <t>서아라</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>snatchedfriends</t>
+          <t>critic74</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>월수</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>대구강북초등학교</t>
+          <t>대구옥산초등학교</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>대구 북구 구암로65길 9 307동 508호</t>
+          <t>대구 북구 칠성남로 101 107동 401호</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-06-23 20:00:13</t>
+          <t>2025-06-24 14:34:17</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>엄윤성</t>
+          <t>강정혁</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>lifesoccer</t>
+          <t>empathycontribu</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4373,17 +4403,1312 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>대구동평초등학교</t>
+          <t>대구침산초등학교</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>대구 북구 구암서로 22 203동 406호</t>
+          <t>대구 북구 침산로 163 104동 106호</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-06-23 20:32:13</t>
+          <t>2025-06-24 14:47:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>배아리</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>dopefam2</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>11</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>대구 북구 구암로65길 9 307동 506호</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>정루다</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>breadcrumbingsq</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>13</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>대구 북구 학남로 60 나동 506호</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>박은우</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>nicemusician6</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>11</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 116 101동 309호</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>이태겸</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>teachersnapchat</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>13</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>대구 동구 아양로9길 35 102동 107호</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>전로하</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>basic98</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>13</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 403호</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>오유빈</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>wizardfoodie2</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>11</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>대구 동구 신성로 60 104동 502호</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>신선율</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>shookproblem-so</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>11</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동 980 106동 503호</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>고민호</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>nature1</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>13</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>대구 북구 경대로5길 25 210동 106호</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:38:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>김원</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>persistentenvir</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>13</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>대구 북구 학정로110길 29 101동 205호</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>박민석</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>musicianshining</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>12</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 203동 509호</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:51:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>조건호</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>trainer4</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>13</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로4길 9 212동 107호</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:52:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>박희성</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>intelligentbake</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>13</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 405호</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>조서준</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>friendship24</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>11</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>대구 북구 구암로65길 9 307동 403호</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:54:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>류수혁</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>loyalcreativity</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>12</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>대구 북구 구암로65길 9 307동 507호</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:55:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>염수연</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>writer2</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>11</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>대구 북구 경대로5길 25 210동 209호</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>최유겸</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>maxentertainer4</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>12</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>대구 북구 학남로 60 나동 304호</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>이현서</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>never51</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>13</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 16 105동 206호</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:00:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>장하준</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>flex21</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>11</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>대구 북구 학남로 60 나동 501호</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>노채빈</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>rush27</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>12</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 16 105동 309호</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:03:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>김가현</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>technologycomed</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>13</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>대구 북구 경대로5길 25 210동 307호</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:03:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>유은찬</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>robloxmemories</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>11</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 202동 209호</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:04:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>박성우</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>happyconfident8</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>11</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>대구 동구 아양로9길 35 102동 409호</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:05:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>백태우</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>organized67</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>11</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 203동 503호</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:06:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>이하온</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>mentorlearning8</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>12</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로19길 9 103동 302호</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:07:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>양성현</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>independentstar</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>12</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 16 105동 505호</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:09:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>원승우</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>developermusic</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>12</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>대구 북구 침산로 163 104동 107호</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>유로한</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>honesty7</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>13</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>대구 북구 옥산로17길 50 102동 508호</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:11:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>정도겸</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>cookingdiscover</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>13</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 202동 506호</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>정재영</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>lunatic20</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>11</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 108호</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:13:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>김담</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>kpopdreamer</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>11</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 70 203동 503호</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:14:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>이민혁</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>culturemathemat</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>11</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>대구 동구 아양로9길 35 102동 208호</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>허지수</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>writingking</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>12</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로4길 9 212동 401호</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:16:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>곽지후</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>bookworm83</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>12</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>대구 북구 호암로 20 110동 307호</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>김유빈</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>epicstudent</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 90 102동 201호</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>김예준</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>scientisttraine</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>12</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>대구 북구 옥산로17길 50 102동 408호</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>김우리</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>connectornice</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>12</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 116 101동 301호</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:20:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>배진호</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>producermentor</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>13</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 70 203동 405호</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2025-06-24 17:21:26</t>
         </is>
       </c>
     </row>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
@@ -5709,6 +5709,706 @@
       <c r="G165" t="inlineStr">
         <is>
           <t>2025-06-24 17:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>임성현</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>moderatorgucci2</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>11</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>대구 북구 학정로110길 29 101동 107호</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2025-06-25 13:35:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>김경준</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>curious55</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>12</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>대구 북구 옥산로17길 50 102동 102호</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2025-06-25 13:44:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>정준원</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>hyperpioneer</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>13</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 16 105동 107호</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2025-06-25 13:52:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>변준</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>student04</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>12</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>대구 북구 경대로5길 25 210동 403호</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:01:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>소우빈</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>teenrager1</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>11</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 84 102동 406호</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:09:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>임하음</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>sustainabilityb</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>13</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>대구 북구 옥산로17길 50 102동 101호</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:19:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>백시율</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>motivation4</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>12</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>대구관문초등학교</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>대구 북구 매전로 50-42 202동 309호</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:28:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>정유진</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>visionarychampi</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>12</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>대구 북구 침산로21길 24 103동 306호</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:36:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>권현민</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>resourceful46</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>12</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 203동 407호</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:44:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>권지민</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>squad72</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>11</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로19길 9 103동 306호</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2025-06-25 14:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>백다희</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>requestionversa</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>12</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 41 303동 303호</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2025-06-25 15:01:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>기준우</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ghostingrush6</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>13</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>대구 북구 구암서로 70 203동 405호</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2025-06-25 15:10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>임예령</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>imaginationlear</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>13</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>대구강북초등학교</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>대구 북구 구암로65길 9 307동 201호</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2025-06-25 15:19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>강나현</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>respectadvocate</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>13</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>대구 북구 국우동 1080 505동 103호</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2025-06-25 15:29:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>박세현</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>iyeseoxoxdevelo</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>13</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>대구학남초등학교</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>대구 북구 국우동 1080 505동 505호</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2025-06-25 15:38:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>김준이</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>crazybaseball2</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>13</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>대구 북구 학정로110길 29 101동 209호</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2025-06-25 15:47:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>김서현</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>culturetraveler</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>11</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>대구신암초등학교</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>대구 동구 아양로9길 35 102동 406호</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2025-06-25 15:57:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>강현서</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ninja9</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>11</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>대구 북구 학정동로 40 202동 209호</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:06:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>권이든</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>researchershook</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>12</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>대구 북구 호암로 20 110동 305호</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:14:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>김채우</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>champ8</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>12</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>대구학정초등학교</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>대구 북구 학정로110길 29 101동 507호</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:23:57</t>
         </is>
       </c>
     </row>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 현황.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
@@ -6409,6 +6409,181 @@
       <c r="G185" t="inlineStr">
         <is>
           <t>2025-06-25 16:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>김시하</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>equalitytea7</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>13</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>대구복현초등학교</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>대구 북구 공항로 16 105동 301호</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2025-06-25 17:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>신인우</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>curatormotivate</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>13</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>대구 북구 호암로 20 110동 505호</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2025-06-25 17:48:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>노제이</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>robloxtbh</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>11</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>대구달산초등학교</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>대구 북구 침산로21길 24 103동 108호</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2025-06-25 17:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>허유승</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>writing88</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>11</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>월수</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>대구옥산초등학교</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>대구 북구 호암로 40 105동 102호</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2025-06-25 17:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>이지환</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>couragelunatic</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>13</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>화목</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>대구침산초등학교</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>대구 북구 침산남로 90 102동 202호</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2025-06-25 17:52:17</t>
         </is>
       </c>
     </row>
